--- a/biology/Biologie cellulaire et moléculaire/Protéine_NS3/Protéine_NS3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Protéine_NS3/Protéine_NS3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_NS3</t>
+          <t>Protéine_NS3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine NS3 est une protéine non structurelle du virus de l'hépatite C. Elle a de nombreuses fonctions. Elle comporte un domaine sérine protéase qui constitue un tiers du peptide (extrémité N terminale) et un domaine hélicase (hélicase du VHC) qui constitue deux tiers du peptide (extrémité C terminale). L'activité protéase est en lien avec la protéine NS4A qui joue le rôle de cofacteur au sein de la protéase NS3-4A.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_NS3</t>
+          <t>Protéine_NS3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stéphane Chevaliez, Jean-Michel Pawlotsky , « Chapter 1: HCV Genome and Life Cycle » (en ligne), Seng-Lai Tan, Hepatitis C Viruses: Genomes and Molecular Biology, 2006,  (ISBN 978-1-904933-20-5) (lire en ligne)
